--- a/Androidアプリ課題_ネームバトラー_仕様書.xlsx
+++ b/Androidアプリ課題_ネームバトラー_仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NameBattler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1835D8-47DF-48BF-9164-D525F3F28E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FED605-AFFE-4500-AF46-186F0CA521F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ制作課題について" sheetId="4" r:id="rId1"/>
@@ -249,9 +249,6 @@
     <t>最大選択数チェックによるエラー表示</t>
   </si>
   <si>
-    <t>［このパーティーで開始(n/3)］ボタン</t>
-  </si>
-  <si>
     <t>選択数に応じたボタン文言の変更</t>
   </si>
   <si>
@@ -1711,6 +1708,10 @@
       </rPr>
       <t>,3:忍者</t>
     </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>［このパーティーで開始(n/3)］ボタン</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1774,7 +1775,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1790,6 +1791,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,7 +2010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2066,6 +2079,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4037,172 +4062,172 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B41" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B42" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4228,21 +4253,21 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
         <v>126</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
         <v>129</v>
-      </c>
-      <c r="E11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="19.8" x14ac:dyDescent="0.45">
@@ -4250,21 +4275,21 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>132</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4298,8 +4323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -4313,18 +4338,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="C1" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>0</v>
@@ -4335,7 +4360,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
@@ -4356,57 +4381,57 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="C8" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -4417,7 +4442,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -4559,13 +4584,13 @@
         <v>31</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4623,7 +4648,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -4633,13 +4658,13 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -4684,8 +4709,8 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
-      <c r="B42" s="8" t="s">
-        <v>45</v>
+      <c r="B42" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>11</v>
@@ -4694,20 +4719,20 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
-        <v>46</v>
+      <c r="C43" s="24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="9" t="s">
-        <v>47</v>
+      <c r="C44" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>7</v>
@@ -4719,49 +4744,49 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>7</v>
@@ -4773,65 +4798,65 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>7</v>
@@ -4843,33 +4868,33 @@
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="7"/>
-      <c r="B62" s="8" t="s">
-        <v>65</v>
+      <c r="B62" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>7</v>
@@ -4881,34 +4906,34 @@
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>11</v>
@@ -4917,10 +4942,10 @@
     <row r="68" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="12"/>
       <c r="B68" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4951,210 +4976,210 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5167,7 +5192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B82" sqref="B3:B82"/>
     </sheetView>
   </sheetViews>
@@ -5179,486 +5204,486 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="22"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="22"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="22"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="22"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="22"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="22"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" s="22"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="22"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="22"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="22"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="22"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="22"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="22"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="22"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" s="22"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="22"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B34" s="22"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" s="22"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="22"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37" s="22"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" s="22"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B39" s="22"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40" s="22"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" s="22"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B47" s="22"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" s="22"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" s="22"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" s="22"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" s="22"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" s="22"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="22"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57" s="22"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" s="22"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61" s="22"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" s="22"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63" s="22"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64" s="22"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65" s="22"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="22"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B67" s="22"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B68" s="22"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B69" s="22"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B70" s="22"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71" s="22"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B72" s="22"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B73" s="22"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74" s="22"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" s="22"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78" s="22"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79" s="22"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B80" s="22"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B81" s="22"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" s="22"/>
     </row>
@@ -5696,15 +5721,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B742B7C413A0C44D8D123CB1ED143E31" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="52dbfaedfabb83f55606f1f19da664c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd81839b-0946-4c0b-8c9f-38b7545f6b39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1aa544c6d64394179f63dfa6d115867" ns2:_="">
     <xsd:import namespace="bd81839b-0946-4c0b-8c9f-38b7545f6b39"/>
@@ -5874,6 +5890,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5881,14 +5906,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F94C99CC-FB0B-4F83-9989-F1722736CA30}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBF60615-3277-4264-B33D-11D0163111DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5906,6 +5923,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F94C99CC-FB0B-4F83-9989-F1722736CA30}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56B5DE61-AFAA-438F-BC36-93CCB16F219F}">
   <ds:schemaRefs>
